--- a/src/TailWind-Styles/tailWindStyles.xlsx
+++ b/src/TailWind-Styles/tailWindStyles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rabeay\Desktop\React - The Complete Guide 2024 (incl. Next.js, Redux)\09-project -mangment-app\src\TailWind-Styles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rabeay\Desktop\React\09-project -mangment-app\src\TailWind-Styles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F9FA5-324B-4FFE-8EF5-21856B1F215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF38743-9A74-4899-91DB-7866C587BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -529,12 +529,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -549,7 +549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -569,12 +569,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -594,7 +594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -619,17 +619,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -639,7 +639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -663,13 +663,13 @@
   <autoFilter ref="A1:A37" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="&lt;button className=&quot;px-4 py-2 text-xs md:text-base rounded-md bg-stone-700 text-stone-400 hover:bg-stone-600 hover:text-stone-100&quot;&gt;...&lt;/button&gt;"/>
-        <filter val="&lt;button className=&quot;px-6 py-2 rounded-md bg-stone-800 text-stone-50 hover:bg-stone-950&quot;&gt;...&lt;/button&gt;"/>
-        <filter val="&lt;button className=&quot;text-stone-600 hover:text-stone-950&quot;&gt;...&lt;/button&gt;"/>
-        <filter val="&lt;button className=&quot;text-stone-700 hover:text-red-500&quot;&gt;...&lt;/button&gt;"/>
-        <filter val="&lt;button className=&quot;text-stone-700 hover:text-stone-950&quot;&gt;...&lt;/button&gt;"/>
-        <filter val="&lt;button className=&quot;text-stone-800 hover:text-stone-950&quot;&gt;...&lt;/button&gt;"/>
-        <filter val="&lt;button className=&quot;w-full text-left px-2 py-1 rounded-sm my-1 hover:text-stone-200 hover:bg-stone-800&quot;&gt;...&lt;/button&gt;"/>
+        <filter val="&lt;p className=&quot;flex flex-col gap-1 my-4&quot;&gt;...&lt;/p&gt;"/>
+        <filter val="&lt;p className=&quot;mb-4 text-stone-400&quot;&gt;...&lt;/p&gt;"/>
+        <filter val="&lt;p className=&quot;mt-8&quot;&gt;...&lt;/p&gt;"/>
+        <filter val="&lt;p className=&quot;text-stone-400 mb-4&quot;&gt;...&lt;/p&gt;"/>
+        <filter val="&lt;p className=&quot;text-stone-600 mb-4&quot;&gt;...&lt;/p&gt;"/>
+        <filter val="&lt;p className=&quot;text-stone-600 whitespace-pre-wrap&quot;&gt;...&lt;/p&gt;"/>
+        <filter val="&lt;p className=&quot;text-stone-800 my-4&quot;&gt;...&lt;/p&gt;"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/src/TailWind-Styles/tailWindStyles.xlsx
+++ b/src/TailWind-Styles/tailWindStyles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rabeay\Desktop\React\09-project -mangment-app\src\TailWind-Styles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF38743-9A74-4899-91DB-7866C587BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEBD338-47D8-4E7E-B853-66E6C39C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -529,12 +529,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -549,7 +549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -569,12 +569,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -594,7 +594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -619,17 +619,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -639,7 +639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -663,13 +663,13 @@
   <autoFilter ref="A1:A37" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="&lt;p className=&quot;flex flex-col gap-1 my-4&quot;&gt;...&lt;/p&gt;"/>
-        <filter val="&lt;p className=&quot;mb-4 text-stone-400&quot;&gt;...&lt;/p&gt;"/>
-        <filter val="&lt;p className=&quot;mt-8&quot;&gt;...&lt;/p&gt;"/>
-        <filter val="&lt;p className=&quot;text-stone-400 mb-4&quot;&gt;...&lt;/p&gt;"/>
-        <filter val="&lt;p className=&quot;text-stone-600 mb-4&quot;&gt;...&lt;/p&gt;"/>
-        <filter val="&lt;p className=&quot;text-stone-600 whitespace-pre-wrap&quot;&gt;...&lt;/p&gt;"/>
-        <filter val="&lt;p className=&quot;text-stone-800 my-4&quot;&gt;...&lt;/p&gt;"/>
+        <filter val="&lt;button className=&quot;px-4 py-2 text-xs md:text-base rounded-md bg-stone-700 text-stone-400 hover:bg-stone-600 hover:text-stone-100&quot;&gt;...&lt;/button&gt;"/>
+        <filter val="&lt;button className=&quot;px-6 py-2 rounded-md bg-stone-800 text-stone-50 hover:bg-stone-950&quot;&gt;...&lt;/button&gt;"/>
+        <filter val="&lt;button className=&quot;text-stone-600 hover:text-stone-950&quot;&gt;...&lt;/button&gt;"/>
+        <filter val="&lt;button className=&quot;text-stone-700 hover:text-red-500&quot;&gt;...&lt;/button&gt;"/>
+        <filter val="&lt;button className=&quot;text-stone-700 hover:text-stone-950&quot;&gt;...&lt;/button&gt;"/>
+        <filter val="&lt;button className=&quot;text-stone-800 hover:text-stone-950&quot;&gt;...&lt;/button&gt;"/>
+        <filter val="&lt;button className=&quot;w-full text-left px-2 py-1 rounded-sm my-1 hover:text-stone-200 hover:bg-stone-800&quot;&gt;...&lt;/button&gt;"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/src/TailWind-Styles/tailWindStyles.xlsx
+++ b/src/TailWind-Styles/tailWindStyles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rabeay\Desktop\React\09-project -mangment-app\src\TailWind-Styles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEBD338-47D8-4E7E-B853-66E6C39C696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D74D14D-1249-403A-BF0D-7099D061A541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>&lt;ul className="mt-8"&gt;...&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;button className="w-full text-left px-2 py-1 rounded-sm my-1 hover:text-stone-200 hover:bg-stone-800"&gt;...&lt;/button&gt;</t>
-  </si>
-  <si>
     <t>&lt;header className="pb-4 mb-4 border-b-2 border-stone-300"&gt;...&lt;/header&gt;</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>&lt;button className="text-stone-700 hover:text-red-500"&gt;...&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;button className="w-full text-left px-2 py-1 rounded-sm my-1 text-stone-400 hover:text-stone-200 hover:bg-stone-800"&gt;...&lt;/button&gt;</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
@@ -606,57 +606,57 @@
     </row>
     <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
